--- a/Documents/Technical/Help/DDAS_SetUp_Details.xlsx
+++ b/Documents/Technical/Help/DDAS_SetUp_Details.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="DDAS_Setup" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Preparations" sheetId="2" r:id="rId1"/>
+    <sheet name="DDAS_Setup" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>DDAS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>App_Data\Downloads</t>
   </si>
@@ -125,6 +122,30 @@
   </si>
   <si>
     <t>contains DataExtraction log text file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following folders are created by the Setup utlity. </t>
+  </si>
+  <si>
+    <t>Install site</t>
+  </si>
+  <si>
+    <t>Run Setup.exe</t>
+  </si>
+  <si>
+    <t>Creaters Intitial Users</t>
+  </si>
+  <si>
+    <t>Creates Folders</t>
+  </si>
+  <si>
+    <t>Set up Extraction Scheduler</t>
+  </si>
+  <si>
+    <t>Execute Test Cases</t>
+  </si>
+  <si>
+    <t>To ensure that the Installation and preparatory work is completed.</t>
   </si>
 </sst>
 </file>
@@ -526,11 +547,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -542,93 +623,93 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -639,93 +720,79 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Documents/Technical/Help/DDAS_SetUp_Details.xlsx
+++ b/Documents/Technical/Help/DDAS_SetUp_Details.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>App_Data\Downloads</t>
   </si>
@@ -130,22 +130,31 @@
     <t>Install site</t>
   </si>
   <si>
-    <t>Run Setup.exe</t>
-  </si>
-  <si>
-    <t>Creaters Intitial Users</t>
-  </si>
-  <si>
-    <t>Creates Folders</t>
-  </si>
-  <si>
     <t>Set up Extraction Scheduler</t>
   </si>
   <si>
     <t>Execute Test Cases</t>
   </si>
   <si>
-    <t>To ensure that the Installation and preparatory work is completed.</t>
+    <t>Steps to host the DDAS application</t>
+  </si>
+  <si>
+    <t>Sr. No</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>A scheduler needs to be set to run the 'DDAS.Extractor.exe' every 24 hours. The 'DDAS.Extractor.exe' will extract data from all sites. Data In the application can be found only when this task is scheduled</t>
+  </si>
+  <si>
+    <t>Run DDAS.Setup.exe</t>
+  </si>
+  <si>
+    <t>Creates Intitial Users - ClarityAdmin1, Admin1 and User1 with the roles app-admin, admin and user respectively and Creates required folders</t>
+  </si>
+  <si>
+    <t>To ensure that the Installation and preparatory work is completed</t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -245,6 +254,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,63 +563,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -611,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
